--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600102B7-DE4C-4E0F-B650-1AD3823E3DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB9F596-7CC9-4F70-B119-66224AF8A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="77">
   <si>
     <t>Alpha</t>
   </si>
@@ -156,9 +156,6 @@
     <t>lucas_job 2506978</t>
   </si>
   <si>
-    <t>lucas_job 2506979</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mean: 0.5983, Variance: 0.0007, 95% Confidence Interval: [0.5757, 0.6209]</t>
   </si>
   <si>
@@ -193,6 +190,72 @@
   </si>
   <si>
     <t>[1.3337, 1.2914, 1.4191, 1.3301, 1.2975]</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>lucas_job 2506982</t>
+  </si>
+  <si>
+    <t>lucas_job 2506983</t>
+  </si>
+  <si>
+    <t>lucas_job 2506984</t>
+  </si>
+  <si>
+    <t>lucas_job 2506985</t>
+  </si>
+  <si>
+    <t>Mean: 0.6131, Variance: 0.0013, 95% Confidence Interval: [0.5815, 0.6446]</t>
+  </si>
+  <si>
+    <t>[1.7374, 1.5952, 1.6373, 0.9172, 1.1172]</t>
+  </si>
+  <si>
+    <t>Mean: 1.4008, Variance: 0.1303, 95% Confidence Interval: [1.0844, 1.7173]</t>
+  </si>
+  <si>
+    <t>[0.6192, 0.5914, 0.5863, 0.6734, 0.5952]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6116, Variance: 0.0022, 95% Confidence Interval: [0.5707, 0.6524]</t>
+  </si>
+  <si>
+    <t>Mean: 1.5437, Variance: 0.0804, 95% Confidence Interval: [1.2951, 1.7923]</t>
+  </si>
+  <si>
+    <t>[0.6411, 0.5657, 0.5755, 0.6767, 0.5989]</t>
+  </si>
+  <si>
+    <t>[1.8036, 1.7127, 1.7294, 1.2695, 1.2032]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6105, Variance: 0.0027, 95% Confidence Interval: [0.5649, 0.6560]</t>
+  </si>
+  <si>
+    <t>Mean: 1.6077, Variance: 0.0676, 95% Confidence Interval: [1.3798, 1.8355]</t>
+  </si>
+  <si>
+    <t>[0.6432, 0.5536, 0.5708, 0.6805, 0.6043]</t>
+  </si>
+  <si>
+    <t>[1.8414, 1.7697, 1.7774, 1.3440, 1.3058]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6110, Variance: 0.0017, 95% Confidence Interval: [0.5747, 0.6474]</t>
+  </si>
+  <si>
+    <t>[0.6288, 0.5782, 0.5764, 0.6750, 0.5968]</t>
+  </si>
+  <si>
+    <t>Mean: 1.4794, Variance: 0.0976, 95% Confidence Interval: [1.2055, 1.7532]</t>
+  </si>
+  <si>
+    <t>[1.7683, 1.6620, 1.6821, 1.1931, 1.0913]</t>
   </si>
 </sst>
 </file>
@@ -227,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +375,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,37 +669,37 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" customWidth="1"/>
-    <col min="16" max="16" width="13.90625" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" customWidth="1"/>
-    <col min="19" max="19" width="65.1796875" customWidth="1"/>
-    <col min="20" max="20" width="37.08984375" customWidth="1"/>
-    <col min="21" max="21" width="64.453125" customWidth="1"/>
-    <col min="22" max="22" width="38.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" customWidth="1"/>
+    <col min="19" max="19" width="65.21875" customWidth="1"/>
+    <col min="20" max="20" width="37.109375" customWidth="1"/>
+    <col min="21" max="21" width="64.44140625" customWidth="1"/>
+    <col min="22" max="22" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -689,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -699,16 +774,16 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="3">
-        <v>100</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -720,28 +795,28 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -757,7 +832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -767,16 +842,16 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="7">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7">
         <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -788,44 +863,44 @@
       <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="M4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -835,16 +910,16 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7">
         <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -856,40 +931,44 @@
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="V5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -899,16 +978,16 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7">
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -920,42 +999,46 @@
       <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="V6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -963,16 +1046,16 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7">
         <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -984,204 +1067,284 @@
       <c r="J7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F8" s="7">
+        <v>100</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F9" s="7">
+        <v>100</v>
+      </c>
+      <c r="G9" s="7">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F10" s="7">
+        <v>100</v>
+      </c>
+      <c r="G10" s="7">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="F11" s="7">
+        <v>100</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="Q11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S11" s="3"/>
@@ -1189,44 +1352,44 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="7">
+        <v>100</v>
+      </c>
+      <c r="G12" s="7">
         <v>7</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S12" s="3"/>
@@ -1234,44 +1397,44 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
       </c>
-      <c r="F13" s="3">
-        <v>100</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="7">
+        <v>100</v>
+      </c>
+      <c r="G13" s="7">
         <v>7</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="M13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="Q13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S13" s="3"/>
@@ -1279,44 +1442,44 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="7">
+        <v>100</v>
+      </c>
+      <c r="G14" s="7">
         <v>7</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="M14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S14" s="3"/>
@@ -1324,44 +1487,44 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="7">
+        <v>100</v>
+      </c>
+      <c r="G15" s="7">
         <v>7</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="M15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="3" t="s">
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S15" s="3"/>
@@ -1369,44 +1532,44 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
       </c>
-      <c r="F16" s="3">
-        <v>100</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="7">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7">
         <v>7</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="M16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="3" t="s">
+      <c r="Q16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S16" s="3"/>
@@ -1414,44 +1577,44 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="7">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7">
         <v>7</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="M17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="3" t="s">
+      <c r="Q17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S17" s="3"/>
@@ -1459,44 +1622,44 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="7">
+        <v>100</v>
+      </c>
+      <c r="G18" s="7">
         <v>7</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="M18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="3" t="s">
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S18" s="3"/>
@@ -1504,44 +1667,44 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="3">
         <v>20</v>
       </c>
-      <c r="F19" s="3">
-        <v>100</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="7">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7">
         <v>7</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="M19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="Q19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S19" s="3"/>
@@ -1549,44 +1712,44 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="3">
         <v>20</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="7">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7">
         <v>7</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="M20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="3" t="s">
+      <c r="Q20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S20" s="3"/>
@@ -1594,44 +1757,44 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="7">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7">
         <v>7</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="M21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="3" t="s">
+      <c r="Q21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S21" s="3"/>
@@ -1639,44 +1802,44 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="7">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7">
         <v>7</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="M22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" s="3" t="s">
+      <c r="Q22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S22" s="3"/>
@@ -1684,44 +1847,44 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="7">
+        <v>100</v>
+      </c>
+      <c r="G23" s="7">
         <v>7</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="3" t="s">
+      <c r="M23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" s="3" t="s">
+      <c r="Q23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S23" s="3"/>
@@ -1729,44 +1892,44 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="3">
         <v>20</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="7">
+        <v>100</v>
+      </c>
+      <c r="G24" s="7">
         <v>7</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="M24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S24" s="3"/>
@@ -1774,44 +1937,44 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>1</v>
       </c>
       <c r="E25" s="3">
         <v>20</v>
       </c>
-      <c r="F25" s="3">
-        <v>100</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="7">
+        <v>100</v>
+      </c>
+      <c r="G25" s="7">
         <v>7</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="3" t="s">
+      <c r="M25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" s="3" t="s">
+      <c r="Q25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S25" s="3"/>
@@ -1819,44 +1982,44 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="7">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7">
         <v>7</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="3" t="s">
+      <c r="M26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" s="3" t="s">
+      <c r="Q26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S26" s="3"/>
@@ -1864,44 +2027,44 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="3">
         <v>20</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="7">
+        <v>100</v>
+      </c>
+      <c r="G27" s="7">
         <v>7</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="M27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" s="3" t="s">
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S27" s="3"/>
@@ -1909,44 +2072,44 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>20</v>
       </c>
-      <c r="F28" s="3">
-        <v>100</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="7">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7">
         <v>7</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="M28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" s="3" t="s">
+      <c r="Q28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S28" s="3"/>
@@ -1954,44 +2117,44 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
       </c>
-      <c r="F29" s="3">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="7">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7">
         <v>7</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="M29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S29" s="3"/>
@@ -1999,44 +2162,44 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>20</v>
       </c>
-      <c r="F30" s="3">
-        <v>100</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="7">
+        <v>100</v>
+      </c>
+      <c r="G30" s="7">
         <v>7</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="3" t="s">
+      <c r="M30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="3" t="s">
+      <c r="Q30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S30" s="3"/>
@@ -2044,44 +2207,44 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="3">
-        <v>100</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="7">
+        <v>100</v>
+      </c>
+      <c r="G31" s="7">
         <v>7</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" s="3" t="s">
+      <c r="M31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" s="3" t="s">
+      <c r="Q31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S31" s="3"/>
@@ -2089,44 +2252,44 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" s="3">
         <v>20</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="7">
+        <v>100</v>
+      </c>
+      <c r="G32" s="7">
         <v>7</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="3" t="s">
+      <c r="M32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="3" t="s">
+      <c r="Q32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S32" s="3"/>
@@ -2134,44 +2297,44 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>1</v>
       </c>
       <c r="E33" s="3">
         <v>20</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="7">
+        <v>100</v>
+      </c>
+      <c r="G33" s="7">
         <v>7</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="3" t="s">
+      <c r="M33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="3" t="s">
+      <c r="Q33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S33" s="3"/>
@@ -2179,7 +2342,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2202,7 +2365,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2223,7 +2386,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2244,7 +2407,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2265,7 +2428,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2286,7 +2449,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2307,7 +2470,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2328,7 +2491,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2349,7 +2512,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2370,7 +2533,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2391,7 +2554,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2412,7 +2575,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2433,7 +2596,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2454,7 +2617,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2475,7 +2638,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2496,7 +2659,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB9F596-7CC9-4F70-B119-66224AF8A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B5924-29BE-4E2A-880A-90F27FBC8F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="79">
   <si>
     <t>Alpha</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>[1.7683, 1.6620, 1.6821, 1.1931, 1.0913]</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.91</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1168,7 @@
       <c r="S8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="U8" s="3" t="s">
@@ -1312,7 +1318,9 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
@@ -1325,12 +1333,21 @@
       <c r="G11" s="7">
         <v>7</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="M11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1357,9 @@
       <c r="O11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1375,9 @@
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
@@ -1369,13 +1390,21 @@
       <c r="G12" s="7">
         <v>7</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="M12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1414,9 @@
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1432,9 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
@@ -1414,9 +1447,15 @@
       <c r="G13" s="7">
         <v>7</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1485,9 @@
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
@@ -1459,9 +1500,15 @@
       <c r="G14" s="7">
         <v>7</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B5924-29BE-4E2A-880A-90F27FBC8F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6A15B-2B5C-4C9B-8686-901023778FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
   <si>
     <t>Alpha</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Mean: 1.2353, Variance: 0.0021, 95% Confidence Interval: [1.1946, 1.2759]</t>
   </si>
   <si>
-    <t>[0.6235, 0.6095, 0.6234, 0.6854, 0.5767]</t>
-  </si>
-  <si>
-    <t>[1.2022, 1.2746, 1.2419, 1.1748, 1.2827]</t>
-  </si>
-  <si>
     <t>0.00005</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>[0.5609, 0.6170, 0.5816, 0.6166, 0.6155]</t>
   </si>
   <si>
-    <t>[0.5609, 0.6278, 0.5773, 0.5915, 0.6699]</t>
-  </si>
-  <si>
     <t>[1.2571, 1.1093, 1.1706, 1.0481, 1.1117]</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>Mean: 0.6131, Variance: 0.0013, 95% Confidence Interval: [0.5815, 0.6446]</t>
   </si>
   <si>
-    <t>[1.7374, 1.5952, 1.6373, 0.9172, 1.1172]</t>
-  </si>
-  <si>
     <t>Mean: 1.4008, Variance: 0.1303, 95% Confidence Interval: [1.0844, 1.7173]</t>
   </si>
   <si>
@@ -262,13 +250,234 @@
   </si>
   <si>
     <t>0.91</t>
+  </si>
+  <si>
+    <t>lucas_job 2507087</t>
+  </si>
+  <si>
+    <t>lucas_job 2507088</t>
+  </si>
+  <si>
+    <t>lucas_job 2507089</t>
+  </si>
+  <si>
+    <t>lucas_job 2507093</t>
+  </si>
+  <si>
+    <t>Mean: 1.2272, Variance: 0.0021, 95% Confidence Interval: [1.1866, 1.2678]</t>
+  </si>
+  <si>
+    <t>[1.2758, 1.1699, 1.2269, 1.2697, 1.1935]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6233, Variance: 0.0015, 95% Confidence Interval: [0.5896, 0.6570]</t>
+  </si>
+  <si>
+    <t>Mean: 1.2136, Variance: 0.0023, 95% Confidence Interval: [1.1720, 1.2552]</t>
+  </si>
+  <si>
+    <t>[0.5829, 0.6850, 0.6253, 0.6019, 0.6213]</t>
+  </si>
+  <si>
+    <t>[1.2704, 1.1616, 1.2042, 1.2547, 1.1773]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6226, Variance: 0.0015, 95% Confidence Interval: [0.5891, 0.6562]</t>
+  </si>
+  <si>
+    <t>Mean: 1.2413, Variance: 0.0027, 95% Confidence Interval: [1.1958, 1.2867]</t>
+  </si>
+  <si>
+    <t>[1.2879, 1.1661, 1.2587, 1.2827, 1.2109]</t>
+  </si>
+  <si>
+    <t>[0.5767, 0.6821, 0.6182, 0.6095, 0.6267]</t>
+  </si>
+  <si>
+    <t>Mean: 1.2599, Variance: 0.0019, 95% Confidence Interval: [1.2219, 1.2979]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6185, Variance: 0.0009, 95% Confidence Interval: [0.5917, 0.6453]</t>
+  </si>
+  <si>
+    <t>[0.5767, 0.6612, 0.6135, 0.6122, 0.6288]</t>
+  </si>
+  <si>
+    <t>[1.2962, 1.2035, 1.2853, 1.2916, 1.2228]</t>
+  </si>
+  <si>
+    <t>[0.5767, 0.6854, 0.6234, 0.6095, 0.6235]</t>
+  </si>
+  <si>
+    <t>[1.2827,  1.1748, 1.2419, 1.2746, 1.2022]</t>
+  </si>
+  <si>
+    <t>[0.5610, 0.6278, 0.5773, 0.5915, 0.6699]</t>
+  </si>
+  <si>
+    <t>[1.7374, 1.5952, 1.6373, 1.1172, 0.9172]</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.00003</t>
+  </si>
+  <si>
+    <t>lucas_job 2507113</t>
+  </si>
+  <si>
+    <t>lucas_job 2507116</t>
+  </si>
+  <si>
+    <t>lucas_job 2507117</t>
+  </si>
+  <si>
+    <t>lucas_job 2507118</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6275</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0014, 95% Confidence Interval: [0.5943, 0.6607]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5925, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6248, 0.6029, 0.6272]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.5842, 0.6792, 0.6262, 0.6051, 0.6245]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6239, Variance: 0.0012, 95% Confidence Interval: [0.5929, 0.6548]</t>
+  </si>
+  <si>
+    <t>Mean: 1.2134, Variance: 0.0029, 95% Confidence Interval: [1.1660, 1.2608]</t>
+  </si>
+  <si>
+    <t>[1.2722, 1.1435, 1.2080, 1.2616, 1.1817]</t>
+  </si>
+  <si>
+    <t>lucas_job 2507123</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>Mean: 1.3849, Variance: 0.0145, 95% Confidence Interval: [1.2794, 1.4904]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6153, Variance: 0.0004, 95% Confidence Interval: [0.5981, 0.6326]</t>
+  </si>
+  <si>
+    <t>[0.6151, 0.6037, 0.5990, 0.6488, 0.6101]</t>
+  </si>
+  <si>
+    <t>[1.5133, 1.2627, 1.3554, 1.5091, 1.2839]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6166, Variance: 0.0005, 95% Confidence Interval: [0.5974, 0.6359]</t>
+  </si>
+  <si>
+    <t>Mean: 1.3922, Variance: 0.0139, 95% Confidence Interval: [1.2890, 1.4954]</t>
+  </si>
+  <si>
+    <t>[0.6130, 0.6053, 0.5999, 0.6548, 0.6101]</t>
+  </si>
+  <si>
+    <t>[1.5165, 1.2759, 1.3641, 1.5152, 1.2893]</t>
+  </si>
+  <si>
+    <t>[0.6164, 0.5962, 0.6013, 0.6155, 0.5984]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6056, Variance: 0.0001, 95% Confidence Interval: [0.5971, 0.6141]</t>
+  </si>
+  <si>
+    <t>Mean: 1.2899, Variance: 0.0210, 95% Confidence Interval: [1.1628, 1.4170]</t>
+  </si>
+  <si>
+    <t>[1.5076, 1.2614, 1.3474, 1.1990, 1.1340]</t>
+  </si>
+  <si>
+    <t>0.000001</t>
+  </si>
+  <si>
+    <t>lucas_job 2507171</t>
+  </si>
+  <si>
+    <t>lucas_job 2507175</t>
+  </si>
+  <si>
+    <t>lucas_job 2507176</t>
+  </si>
+  <si>
+    <t>Mean: 0.6141, Variance: 0.0016, 95% Confidence Interval: [0.5789, 0.6494]</t>
+  </si>
+  <si>
+    <t>Mean: 0.9519, Variance: 0.0085, 95% Confidence Interval: [0.8711, 1.0328]</t>
+  </si>
+  <si>
+    <t>[0.9290, 1.0528, 1.0439, 0.8818, 0.8523]</t>
+  </si>
+  <si>
+    <t>[0.5616, 0.6412, 0.6286, 0.5827, 0.6565]</t>
+  </si>
+  <si>
+    <t>lucas_job 2507191</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +504,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,13 +605,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +900,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A22" sqref="A22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +997,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -780,16 +1005,16 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -801,46 +1026,46 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>37</v>
+      <c r="V3" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -848,16 +1073,16 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>100</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -869,46 +1094,46 @@
       <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="S4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -916,16 +1141,16 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>100</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -937,46 +1162,46 @@
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="S5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -984,16 +1209,16 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>100</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1005,46 +1230,46 @@
       <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="S6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1052,16 +1277,16 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>100</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1071,48 +1296,48 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>62</v>
+      <c r="S7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1120,16 +1345,16 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>100</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1139,48 +1364,48 @@
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>68</v>
+      <c r="S8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -1188,67 +1413,67 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>100</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>72</v>
+      <c r="S9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -1256,85 +1481,88 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>100</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="S10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>100</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>77</v>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="I11" s="3">
         <v>4</v>
@@ -1342,56 +1570,67 @@
       <c r="J11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="S11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>100</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -1399,56 +1638,67 @@
       <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="S12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>100</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
@@ -1456,52 +1706,67 @@
       <c r="J13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="7" t="s">
+      <c r="P13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="S13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>100</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
@@ -1509,429 +1774,616 @@
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="7" t="s">
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="7" t="s">
+      <c r="P14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="S14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7">
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>100</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>7</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="7" t="s">
+      <c r="H15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="7" t="s">
+      <c r="P15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="S15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7">
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>100</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>7</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="7" t="s">
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="7" t="s">
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="7" t="s">
+      <c r="P16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7">
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>100</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>7</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="7" t="s">
+      <c r="H17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="7" t="s">
+      <c r="P17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7">
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>100</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>7</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="7" t="s">
+      <c r="H18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="7" t="s">
+      <c r="P18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7">
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="3">
         <v>20</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>100</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="7" t="s">
+      <c r="H19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="7" t="s">
+      <c r="P19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7">
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
       <c r="E20" s="3">
         <v>20</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>100</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>7</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="7" t="s">
+      <c r="H20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="7" t="s">
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="7" t="s">
+      <c r="P20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7">
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>100</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>7</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="7" t="s">
+      <c r="H21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7" t="s">
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="7" t="s">
+      <c r="P21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7">
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>100</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>7</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="7" t="s">
+      <c r="H22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="7" t="s">
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="7" t="s">
+      <c r="P22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7">
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>100</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>7</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="7" t="s">
+      <c r="H23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="7" t="s">
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="7" t="s">
+      <c r="P23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S23" s="3"/>
@@ -1939,44 +2391,44 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="3">
         <v>20</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>100</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>7</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S24" s="3"/>
@@ -1984,44 +2436,44 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="3">
         <v>20</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>100</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>7</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S25" s="3"/>
@@ -2029,44 +2481,44 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>100</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>7</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S26" s="3"/>
@@ -2074,44 +2526,44 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="3">
         <v>20</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>100</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>7</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S27" s="3"/>
@@ -2119,44 +2571,44 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>20</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>100</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>7</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S28" s="3"/>
@@ -2164,44 +2616,44 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>100</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>7</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="3"/>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S29" s="3"/>
@@ -2209,44 +2661,44 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>20</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>100</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>7</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="3"/>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="R30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S30" s="3"/>
@@ -2254,44 +2706,44 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>100</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>7</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S31" s="3"/>
@@ -2299,44 +2751,44 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="3">
         <v>20</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>100</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>7</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S32" s="3"/>
@@ -2349,39 +2801,39 @@
         <v>3</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
       <c r="E33" s="3">
         <v>20</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>100</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>7</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="3"/>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P33" s="3"/>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S33" s="3"/>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6A15B-2B5C-4C9B-8686-901023778FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEC4995-5D57-4EF6-A69B-6AE3B18BCC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="138">
   <si>
     <t>Alpha</t>
   </si>
@@ -123,9 +123,6 @@
     <t>0.85</t>
   </si>
   <si>
-    <t>Mean: 0.6237, Variance: 0.0016, 95% Confidence Interval: [0.5891, 0.6583]</t>
-  </si>
-  <si>
     <t>Validation C-Index (Vector)</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
   </si>
   <si>
     <t>[1.2962, 1.2035, 1.2853, 1.2916, 1.2228]</t>
-  </si>
-  <si>
-    <t>[0.5767, 0.6854, 0.6234, 0.6095, 0.6235]</t>
   </si>
   <si>
     <t>[1.2827,  1.1748, 1.2419, 1.2746, 1.2022]</t>
@@ -389,12 +383,6 @@
     </r>
   </si>
   <si>
-    <t>[0.5842, 0.6792, 0.6262, 0.6051, 0.6245]</t>
-  </si>
-  <si>
-    <t>Mean: 0.6239, Variance: 0.0012, 95% Confidence Interval: [0.5929, 0.6548]</t>
-  </si>
-  <si>
     <t>Mean: 1.2134, Variance: 0.0029, 95% Confidence Interval: [1.1660, 1.2608]</t>
   </si>
   <si>
@@ -449,15 +437,6 @@
     <t>0.000001</t>
   </si>
   <si>
-    <t>lucas_job 2507171</t>
-  </si>
-  <si>
-    <t>lucas_job 2507175</t>
-  </si>
-  <si>
-    <t>lucas_job 2507176</t>
-  </si>
-  <si>
     <t>Mean: 0.6141, Variance: 0.0016, 95% Confidence Interval: [0.5789, 0.6494]</t>
   </si>
   <si>
@@ -471,13 +450,134 @@
   </si>
   <si>
     <t>lucas_job 2507191</t>
+  </si>
+  <si>
+    <t>lucas_job 2507193</t>
+  </si>
+  <si>
+    <t>lucas_job 2507196</t>
+  </si>
+  <si>
+    <t>lucas_job 2507197</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6239</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0012, 95% Confidence Interval: [0.5929, 0.6548]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6237</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0016, 95% Confidence Interval: [0.5891, 0.6583]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5842, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6792</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6262, 0.6051, 0.6245]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5767, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6854</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6234, 0.6095, 0.6235]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.6196, Variance: 0.0011, 95% Confidence Interval: [0.5911, 0.6481]</t>
+  </si>
+  <si>
+    <t>Mean: 1.2320, Variance: 0.0016, 95% Confidence Interval: [1.1971, 1.2670]</t>
+  </si>
+  <si>
+    <t>[1.2781, 1.1837, 1.2333, 1.2633, 1.2018]</t>
+  </si>
+  <si>
+    <t>[0.5836, 0.6708, 0.6220, 0.6024, 0.6192]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +607,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -899,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:V22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,18 +1093,18 @@
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1051,21 +1158,21 @@
         <v>27</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1119,21 +1226,21 @@
         <v>27</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1187,21 +1294,21 @@
         <v>27</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="V5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -1255,21 +1362,21 @@
         <v>27</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="V6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1296,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>22</v>
@@ -1323,21 +1430,21 @@
         <v>27</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="V7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1364,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>22</v>
@@ -1391,21 +1498,21 @@
         <v>27</v>
       </c>
       <c r="S8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="V8" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -1426,13 +1533,13 @@
         <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>22</v>
@@ -1459,21 +1566,21 @@
         <v>27</v>
       </c>
       <c r="S9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -1494,13 +1601,13 @@
         <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>22</v>
@@ -1527,21 +1634,21 @@
         <v>27</v>
       </c>
       <c r="S10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -1562,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3">
         <v>4</v>
@@ -1595,21 +1702,21 @@
         <v>27</v>
       </c>
       <c r="S11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -1630,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -1663,21 +1770,21 @@
         <v>27</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -1698,7 +1805,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
@@ -1731,21 +1838,21 @@
         <v>27</v>
       </c>
       <c r="S13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -1766,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
@@ -1799,21 +1906,21 @@
         <v>27</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="U14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -1834,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15" s="3">
         <v>4</v>
@@ -1867,21 +1974,21 @@
         <v>27</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -1902,13 +2009,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>22</v>
@@ -1935,21 +2042,21 @@
         <v>27</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -1970,13 +2077,13 @@
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>22</v>
@@ -2003,21 +2110,21 @@
         <v>27</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -2038,13 +2145,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>22</v>
@@ -2071,21 +2178,21 @@
         <v>27</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
@@ -2106,13 +2213,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I19" s="3">
         <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>22</v>
@@ -2139,21 +2246,21 @@
         <v>27</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -2174,13 +2281,13 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>22</v>
@@ -2213,7 +2320,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2234,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I21" s="3">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>22</v>
@@ -2258,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>26</v>
@@ -2273,7 +2380,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -2294,13 +2401,13 @@
         <v>7</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>22</v>
@@ -2318,7 +2425,7 @@
         <v>24</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>26</v>
@@ -2333,7 +2440,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -2354,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="3">
         <v>4</v>
@@ -2378,7 +2485,7 @@
         <v>24</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>26</v>
@@ -2386,10 +2493,18 @@
       <c r="R23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="S23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEC4995-5D57-4EF6-A69B-6AE3B18BCC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7611C-52E0-4395-B9F7-F624D3382238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7611C-52E0-4395-B9F7-F624D3382238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5DB4BBB-06CF-4C89-90C9-D1DE15633395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="146">
   <si>
     <t>Alpha</t>
   </si>
@@ -452,15 +453,6 @@
     <t>lucas_job 2507191</t>
   </si>
   <si>
-    <t>lucas_job 2507193</t>
-  </si>
-  <si>
-    <t>lucas_job 2507196</t>
-  </si>
-  <si>
-    <t>lucas_job 2507197</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Mean: </t>
     </r>
@@ -571,6 +563,39 @@
   </si>
   <si>
     <t>[0.5836, 0.6708, 0.6220, 0.6024, 0.6192]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5830, Variance: 0.0013, 95% Confidence Interval: [0.5519, 0.6141]</t>
+  </si>
+  <si>
+    <t>[0.5226, 0.6120, 0.5971, 0.5816, 0.6016]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5895, Variance: 0.0372, 95% Confidence Interval: [0.4204, 0.7587]</t>
+  </si>
+  <si>
+    <t>[0.4300, 0.6888, 0.8822, 0.4509, 0.4958]</t>
+  </si>
+  <si>
+    <t>lucas_job_2508007</t>
+  </si>
+  <si>
+    <t>lucas_job_2508008</t>
+  </si>
+  <si>
+    <t>lucas_job_2508010</t>
+  </si>
+  <si>
+    <t>Mean: 0.5900, Variance: 0.0042, 95% Confidence Interval: [0.5334, 0.6465]</t>
+  </si>
+  <si>
+    <t>[0.5596, 0.6621, 0.5816, 0.5030, 0.6437]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5114, Variance: 0.0139, 95% Confidence Interval: [0.4080, 0.6149]</t>
+  </si>
+  <si>
+    <t>[0.4268, 0.6600, 0.6196, 0.4244, 0.4264]</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,10 +1183,10 @@
         <v>27</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>34</v>
@@ -1974,10 +1999,10 @@
         <v>27</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>104</v>
@@ -2260,7 +2285,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -2313,14 +2338,22 @@
       <c r="R20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="S20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2380,7 +2413,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -2433,10 +2466,18 @@
       <c r="R22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="S22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2494,16 +2535,16 @@
         <v>27</v>
       </c>
       <c r="S23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T23" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="U23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F4FF9-E701-4B56-9616-924DAACDB689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D1B12-85E6-4F28-BFE6-F3ADA292D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11950" yWindow="2450" windowWidth="25900" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="212">
   <si>
     <t>Alpha</t>
   </si>
@@ -811,12 +811,157 @@
   <si>
     <t>Gene Expression &amp; Methylation 450k</t>
   </si>
+  <si>
+    <t>lucas_job_2510202</t>
+  </si>
+  <si>
+    <r>
+      <t>Gene Expression &amp; Methylation 450k (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Only Prova2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.3764, 0.5493, 0.4855, 0.6577, 0.7049]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5548, Variance: 0.0174, 95% Confidence Interval: [0.4390, 0.6706]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6270</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0024, 95% Confidence Interval: [0.5844, 0.6696]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6343, 0.5660, 0.6004, 0.6375]</t>
+    </r>
+  </si>
+  <si>
+    <t>lucas_job_2510327</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6494</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0012, 95% Confidence Interval: [0.6184, 0.6803]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6904</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6404, 0.6093, 0.6816, 0.6251]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5378, Variance: 0.0097, 95% Confidence Interval: [0.4516, 0.6240]</t>
+  </si>
+  <si>
+    <t>[0.4101, 0.6370, 0.6062, 0.4584, 0.5771]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +998,13 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -934,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -942,25 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,8 +1106,35 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,2457 +1451,2558 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="11">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="11">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="10">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="11">
         <v>100</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="11">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="10">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="11">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="11">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="10">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="11">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="11">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="10">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="11">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="10">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="4" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="11">
         <v>100</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="11">
         <v>7</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <v>4</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="11">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="10">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="11">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="11">
         <v>100</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="11">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="10">
         <v>4</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="11">
         <v>100</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="11">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="10">
         <v>4</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="4" t="s">
+      <c r="Q11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="11">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="11">
         <v>100</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="11">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="16">
         <v>4</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="Q12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="V12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="11">
         <v>20</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="11">
         <v>100</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="11">
         <v>7</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="10">
         <v>4</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="4" t="s">
+      <c r="Q13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="11">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="11">
         <v>7</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="10">
         <v>4</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="4" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="11">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="11">
         <v>7</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="10">
         <v>4</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="4" t="s">
+      <c r="Q15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="11">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="11">
         <v>100</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="11">
         <v>7</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="10">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="Q16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="V16" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="11">
         <v>20</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="11">
         <v>7</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="10">
         <v>4</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="4" t="s">
+      <c r="Q17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="11">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="11">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="11">
         <v>100</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="11">
         <v>7</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="10">
         <v>4</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="4" t="s">
+      <c r="Q18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="11">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="11">
         <v>7</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="10">
         <v>4</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="4" t="s">
+      <c r="Q19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="11">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="11">
         <v>100</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="11">
         <v>7</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="10">
         <v>4</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="11">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="11">
         <v>100</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="11">
         <v>7</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="10">
         <v>4</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="11">
         <v>20</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="11">
         <v>100</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="11">
         <v>7</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="10">
         <v>4</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="15">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="11">
         <v>100</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="11">
         <v>7</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="10">
         <v>4</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R23" s="4" t="s">
+      <c r="Q23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="11">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="11">
         <v>100</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="11">
         <v>7</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="10">
         <v>4</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="11">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="11">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="11">
         <v>100</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="11">
         <v>7</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="10">
         <v>4</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="11">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="11">
         <v>100</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="11">
         <v>7</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="10">
         <v>4</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="11">
         <v>1</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="11">
         <v>20</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="11">
         <v>100</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="11">
         <v>7</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="10">
         <v>8</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="K27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="4" t="s">
+      <c r="Q27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="11">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="11">
         <v>20</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="11">
         <v>100</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="11">
         <v>7</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="10">
         <v>8</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="K28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="4" t="s">
+      <c r="Q28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="11">
         <v>20</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="11">
         <v>100</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="11">
         <v>7</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="10">
         <v>8</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="K29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="4" t="s">
+      <c r="Q29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="11">
         <v>1</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="11">
         <v>20</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="11">
         <v>100</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="11">
         <v>7</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="10">
         <v>8</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="K30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R30" s="4" t="s">
+      <c r="Q30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="V30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="11">
         <v>1</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="11">
         <v>20</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="11">
         <v>100</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="11">
         <v>7</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="10">
         <v>8</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="K31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" s="4" t="s">
+      <c r="Q31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="V31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W31" s="5" t="s">
+      <c r="W31" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="11">
         <v>1</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="11">
         <v>20</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="11">
         <v>100</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="11">
         <v>7</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="10">
         <v>1</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="10">
         <v>8</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="4" t="s">
+      <c r="K32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="4" t="s">
+      <c r="Q32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="V32" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="W32" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="11">
         <v>1</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="11">
         <v>20</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="11">
         <v>100</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="11">
         <v>7</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="2">
-        <v>16</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="J33" s="10">
+        <v>16</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="4" t="s">
+      <c r="Q33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="W33" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="11">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="11">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="11">
         <v>100</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="11">
         <v>7</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="2">
-        <v>16</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="J34" s="10">
+        <v>16</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R34" s="4" t="s">
+      <c r="Q34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="S34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W34" s="5" t="s">
+      <c r="W34" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="11">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="11">
         <v>20</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="11">
         <v>100</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="11">
         <v>7</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="2">
-        <v>16</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="J35" s="10">
+        <v>16</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="4" t="s">
+      <c r="Q35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="S35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="U35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="V35" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="W35" s="5" t="s">
+      <c r="W35" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="A36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="11">
+        <v>100</v>
+      </c>
+      <c r="H36" s="11">
+        <v>7</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="10">
+        <v>4</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="A37" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="11">
+        <v>100</v>
+      </c>
+      <c r="H37" s="3">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D1B12-85E6-4F28-BFE6-F3ADA292D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D8A13-6ED3-4948-B7C5-E8F5EF78B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11950" yWindow="2450" windowWidth="25900" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="234">
   <si>
     <t>Alpha</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Dataset</t>
   </si>
   <si>
-    <t>Gene Expression &amp; Methylation 27k</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Mean: 1.3344, Variance: 0.0026, 95% Confidence Interval: [1.2897, 1.3791]</t>
   </si>
   <si>
-    <t>[0.5972, 0.6595, 0.6234, 0.5811, 0.6133]</t>
-  </si>
-  <si>
-    <t>[0.5609, 0.6170, 0.5816, 0.6166, 0.6155]</t>
-  </si>
-  <si>
     <t>[1.2571, 1.1093, 1.1706, 1.0481, 1.1117]</t>
   </si>
   <si>
@@ -177,18 +168,12 @@
     <t>Mean: 1.4008, Variance: 0.1303, 95% Confidence Interval: [1.0844, 1.7173]</t>
   </si>
   <si>
-    <t>[0.6192, 0.5914, 0.5863, 0.6734, 0.5952]</t>
-  </si>
-  <si>
     <t>Mean: 0.6116, Variance: 0.0022, 95% Confidence Interval: [0.5707, 0.6524]</t>
   </si>
   <si>
     <t>Mean: 1.5437, Variance: 0.0804, 95% Confidence Interval: [1.2951, 1.7923]</t>
   </si>
   <si>
-    <t>[0.6411, 0.5657, 0.5755, 0.6767, 0.5989]</t>
-  </si>
-  <si>
     <t>[1.8036, 1.7127, 1.7294, 1.2695, 1.2032]</t>
   </si>
   <si>
@@ -198,18 +183,12 @@
     <t>Mean: 1.6077, Variance: 0.0676, 95% Confidence Interval: [1.3798, 1.8355]</t>
   </si>
   <si>
-    <t>[0.6432, 0.5536, 0.5708, 0.6805, 0.6043]</t>
-  </si>
-  <si>
     <t>[1.8414, 1.7697, 1.7774, 1.3440, 1.3058]</t>
   </si>
   <si>
     <t>Mean: 0.6110, Variance: 0.0017, 95% Confidence Interval: [0.5747, 0.6474]</t>
   </si>
   <si>
-    <t>[0.6288, 0.5782, 0.5764, 0.6750, 0.5968]</t>
-  </si>
-  <si>
     <t>Mean: 1.4794, Variance: 0.0976, 95% Confidence Interval: [1.2055, 1.7532]</t>
   </si>
   <si>
@@ -246,9 +225,6 @@
     <t>Mean: 1.2136, Variance: 0.0023, 95% Confidence Interval: [1.1720, 1.2552]</t>
   </si>
   <si>
-    <t>[0.5829, 0.6850, 0.6253, 0.6019, 0.6213]</t>
-  </si>
-  <si>
     <t>[1.2704, 1.1616, 1.2042, 1.2547, 1.1773]</t>
   </si>
   <si>
@@ -261,27 +237,18 @@
     <t>[1.2879, 1.1661, 1.2587, 1.2827, 1.2109]</t>
   </si>
   <si>
-    <t>[0.5767, 0.6821, 0.6182, 0.6095, 0.6267]</t>
-  </si>
-  <si>
     <t>Mean: 1.2599, Variance: 0.0019, 95% Confidence Interval: [1.2219, 1.2979]</t>
   </si>
   <si>
     <t>Mean: 0.6185, Variance: 0.0009, 95% Confidence Interval: [0.5917, 0.6453]</t>
   </si>
   <si>
-    <t>[0.5767, 0.6612, 0.6135, 0.6122, 0.6288]</t>
-  </si>
-  <si>
     <t>[1.2962, 1.2035, 1.2853, 1.2916, 1.2228]</t>
   </si>
   <si>
     <t>[1.2827,  1.1748, 1.2419, 1.2746, 1.2022]</t>
   </si>
   <si>
-    <t>[0.5610, 0.6278, 0.5773, 0.5915, 0.6699]</t>
-  </si>
-  <si>
     <t>[1.7374, 1.5952, 1.6373, 1.1172, 0.9172]</t>
   </si>
   <si>
@@ -331,31 +298,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[0.5925, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6900</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 0.6248, 0.6029, 0.6272]</t>
-    </r>
-  </si>
-  <si>
     <t>Mean: 1.2134, Variance: 0.0029, 95% Confidence Interval: [1.1660, 1.2608]</t>
   </si>
   <si>
@@ -377,9 +319,6 @@
     <t>Mean: 0.6153, Variance: 0.0004, 95% Confidence Interval: [0.5981, 0.6326]</t>
   </si>
   <si>
-    <t>[0.6151, 0.6037, 0.5990, 0.6488, 0.6101]</t>
-  </si>
-  <si>
     <t>[1.5133, 1.2627, 1.3554, 1.5091, 1.2839]</t>
   </si>
   <si>
@@ -389,15 +328,9 @@
     <t>Mean: 1.3922, Variance: 0.0139, 95% Confidence Interval: [1.2890, 1.4954]</t>
   </si>
   <si>
-    <t>[0.6130, 0.6053, 0.5999, 0.6548, 0.6101]</t>
-  </si>
-  <si>
     <t>[1.5165, 1.2759, 1.3641, 1.5152, 1.2893]</t>
   </si>
   <si>
-    <t>[0.6164, 0.5962, 0.6013, 0.6155, 0.5984]</t>
-  </si>
-  <si>
     <t>Mean: 0.6056, Variance: 0.0001, 95% Confidence Interval: [0.5971, 0.6141]</t>
   </si>
   <si>
@@ -419,9 +352,6 @@
     <t>[0.9290, 1.0528, 1.0439, 0.8818, 0.8523]</t>
   </si>
   <si>
-    <t>[0.5616, 0.6412, 0.6286, 0.5827, 0.6565]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Mean: </t>
     </r>
@@ -472,56 +402,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[0.5842, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6792</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 0.6262, 0.6051, 0.6245]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.5767, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6854</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 0.6234, 0.6095, 0.6235]</t>
-    </r>
-  </si>
-  <si>
     <t>Mean: 0.6196, Variance: 0.0011, 95% Confidence Interval: [0.5911, 0.6481]</t>
   </si>
   <si>
@@ -531,15 +411,9 @@
     <t>[1.2781, 1.1837, 1.2333, 1.2633, 1.2018]</t>
   </si>
   <si>
-    <t>[0.5836, 0.6708, 0.6220, 0.6024, 0.6192]</t>
-  </si>
-  <si>
     <t>Mean: 0.5830, Variance: 0.0013, 95% Confidence Interval: [0.5519, 0.6141]</t>
   </si>
   <si>
-    <t>[0.5226, 0.6120, 0.5971, 0.5816, 0.6016]</t>
-  </si>
-  <si>
     <t>Mean: 0.5895, Variance: 0.0372, 95% Confidence Interval: [0.4204, 0.7587]</t>
   </si>
   <si>
@@ -555,9 +429,6 @@
     <t>Mean: 0.5900, Variance: 0.0042, 95% Confidence Interval: [0.5334, 0.6465]</t>
   </si>
   <si>
-    <t>[0.5596, 0.6621, 0.5816, 0.5030, 0.6437]</t>
-  </si>
-  <si>
     <t>Mean: 0.5114, Variance: 0.0139, 95% Confidence Interval: [0.4080, 0.6149]</t>
   </si>
   <si>
@@ -567,39 +438,12 @@
     <t>lucas_job_2507191</t>
   </si>
   <si>
-    <r>
-      <t>Gene Expression &amp; Methylation 27k (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Original Gene Signature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Mean: 0.5703, Variance: 0.0016, 95% Confidence Interval: [0.5353, 0.6053]</t>
   </si>
   <si>
     <t>Mean: 1.0107, Variance: 0.0213, 95% Confidence Interval: [0.8828, 1.1385]</t>
   </si>
   <si>
-    <t>[0.5733, 0.5828, 0.5759, 0.5052, 0.6144]</t>
-  </si>
-  <si>
     <t>[0.8378, 1.1117, 1.2039, 0.9376, 0.9624]</t>
   </si>
   <si>
@@ -612,9 +456,6 @@
     <t>Mean: 0.5824, Variance: 0.0026, 95% Confidence Interval: [0.5376, 0.6273]</t>
   </si>
   <si>
-    <t>[0.5822, 0.5861, 0.5750, 0.5123, 0.6565]</t>
-  </si>
-  <si>
     <t>Mean: 1.1412, Variance: 0.0678, 95% Confidence Interval: [0.9129, 1.3694]</t>
   </si>
   <si>
@@ -627,9 +468,6 @@
     <t>Mean: 0.5915, Variance: 0.0028, 95% Confidence Interval: [0.5448, 0.6382]</t>
   </si>
   <si>
-    <t>[0.6000, 0.6112, 0.5952, 0.5035, 0.6475]</t>
-  </si>
-  <si>
     <t>Mean: 1.2818, Variance: 0.1548, 95% Confidence Interval: [0.9370, 1.6267]</t>
   </si>
   <si>
@@ -643,9 +481,6 @@
   </si>
   <si>
     <t>Mean: 0.4734, Variance: 0.0065, 95% Confidence Interval: [0.4026, 0.5442]</t>
-  </si>
-  <si>
-    <t>[0.3836, 0.4214, 0.5783, 0.5347, 0.4491]</t>
   </si>
   <si>
     <t>Mean: 5.5908, Variance: 0.0376, 95% Confidence Interval: [5.4208, 5.7608]</t>
@@ -704,9 +539,6 @@
     <t xml:space="preserve"> Mean: 0.5555, Variance: 0.0131, 95% Confidence Interval: [0.4551, 0.6559]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.3836, 0.4981, 0.5947, 0.6521, 0.6491]</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -716,9 +548,6 @@
     <t xml:space="preserve"> Mean: 0.5735, Variance: 0.0032, 95% Confidence Interval: [0.5242, 0.6228]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5384, 0.4956, 0.5971, 0.5980, 0.6384]</t>
-  </si>
-  <si>
     <t>lucas_job_2509174</t>
   </si>
   <si>
@@ -728,18 +557,12 @@
     <t>Mean: 0.5668, Variance: 0.0015, 95% Confidence Interval: [0.5323, 0.6013]</t>
   </si>
   <si>
-    <t>[0.5281, 0.5507, 0.5491, 0.5756, 0.6304]</t>
-  </si>
-  <si>
     <t>lucas_job_2509193</t>
   </si>
   <si>
     <t>Mean: 0.5699, Variance: 0.0020, 95% Confidence Interval: [0.5305, 0.6093]</t>
   </si>
   <si>
-    <t>[0.5356, 0.5770, 0.5863, 0.5183, 0.6325]</t>
-  </si>
-  <si>
     <t>lucas_job_2509194</t>
   </si>
   <si>
@@ -749,44 +572,1041 @@
     <t>Mean: 0.5440, Variance: 0.0014, 95% Confidence Interval: [0.5117, 0.5764]</t>
   </si>
   <si>
-    <t>[0.5534, 0.5119, 0.5614, 0.5019, 0.5915]</t>
-  </si>
-  <si>
     <t>lucas_job_2509224</t>
   </si>
   <si>
     <t>Mean: 0.5012, Variance: 0.0051, 95% Confidence Interval: [0.4389, 0.5635]</t>
   </si>
   <si>
-    <t>[0.3836, 0.4981, 0.5096, 0.5598, 0.5547]</t>
-  </si>
-  <si>
     <t>lucas_job_2509375</t>
   </si>
   <si>
     <t>Mean: 0.5444, Variance: 0.0049, 95% Confidence Interval: [0.4828, 0.6060]</t>
   </si>
   <si>
-    <t>[0.6363, 0.5928, 0.5242, 0.4582, 0.5104]</t>
-  </si>
-  <si>
     <t>lucas_job_2509411</t>
   </si>
   <si>
     <t>Mean: 0.4621, Variance: 0.0113, 95% Confidence Interval: [0.3690, 0.5551]</t>
   </si>
   <si>
-    <t>[0.3873, 0.5955, 0.5472, 0.3449, 0.4354]</t>
-  </si>
-  <si>
     <t>Mean: 0.5161, Variance: 0.0193, 95% Confidence Interval: [0.3943, 0.6378]</t>
   </si>
   <si>
-    <t>[0.3197, 0.5970, 0.4390, 0.5507, 0.6740]</t>
-  </si>
-  <si>
-    <r>
-      <t>Gene Expression &amp; Methylation 450k (</t>
+    <t>lucas_job_2510202</t>
+  </si>
+  <si>
+    <t>[0.3764, 0.5493, 0.4855, 0.6577, 0.7049]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5548, Variance: 0.0174, 95% Confidence Interval: [0.4390, 0.6706]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6270</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0024, 95% Confidence Interval: [0.5844, 0.6696]</t>
+    </r>
+  </si>
+  <si>
+    <t>lucas_job_2510327</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6494</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0012, 95% Confidence Interval: [0.6184, 0.6803]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5378, Variance: 0.0097, 95% Confidence Interval: [0.4516, 0.6240]</t>
+  </si>
+  <si>
+    <t>[0.4101, 0.6370, 0.6062, 0.4584, 0.5771]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5972, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6595</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6234, 0.5811, 0.6133]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5767, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6854</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6234, 0.6095, 0.6235]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5609, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5816, 0.6166, 0.6155]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5610, 0.6278, 0.5773, 0.5915, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6192, 0.5914, 0.5863, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6734</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5952]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.6411, 0.5657, 0.5755,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6767</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5989]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6432, 0.5536, 0.5708, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6043]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.6288, 0.5782, 0.5764,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5968]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5829, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6850</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6253, 0.6019, 0.6213]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5767, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6821</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6182, 0.6095, 0.6267]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.5925,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6248, 0.6029, 0.6272]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5767, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6612</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6135, 0.6122, 0.6288]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.5842,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6792</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6262, 0.6051, 0.6245]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.6130, 0.6053, 0.5999,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6548</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6101]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5962, 0.6013, 0.6155, 0.5984]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6151, 0.6037, 0.5990, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6488</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6101]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5616, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6412</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6286, 0.5827, 0.6565]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5226, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5971, 0.5816, 0.6016]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5596, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6621</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5816, 0.5030, 0.6437]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5836, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6708</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6220, 0.6024, 0.6192]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5733, 0.5828, 0.5759, 0.5052, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5822, 0.5861, 0.5750, 0.5123, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6565</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.6000, 0.6112, 0.5952, 0.5035,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6475</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.3836, 0.4214, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5783</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5347, 0.4491]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6343, 0.5660, 0.6004, 0.6375]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6904</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6404, 0.6093, 0.6816, 0.6251]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [0.3836, 0.4981, 0.5947, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6491]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [0.5384, 0.4956, 0.5971, 0.5980, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6384</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5281, 0.5507, 0.5491, 0.5756, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5356, 0.5770, 0.5863, 0.5183, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6325</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5534, 0.5119, 0.5614, 0.5019, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5915</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.3836, 0.4981, 0.5096, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5598</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5547]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6363</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5928, 0.5242, 0.4582, 0.5104]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.3873, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5955</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5472, 0.3449, 0.4354]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.3197, 0.5970, 0.4390, 0.5507,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6740</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Gene Expression &amp; Methylation 27k (5 folds)</t>
+  </si>
+  <si>
+    <r>
+      <t>Gene Expression &amp; Methylation 27k (</t>
     </r>
     <r>
       <rPr>
@@ -805,18 +1625,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Gene Expression &amp; Methylation 450k</t>
-  </si>
-  <si>
-    <t>lucas_job_2510202</t>
-  </si>
-  <si>
-    <r>
-      <t>Gene Expression &amp; Methylation 450k (</t>
+      <t>) (5 folds)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gene Expression &amp; </t>
     </r>
     <r>
       <rPr>
@@ -826,7 +1640,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Only Prova2</t>
+      <t>Full Methylation 27k</t>
     </r>
     <r>
       <rPr>
@@ -835,133 +1649,192 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>[0.3764, 0.5493, 0.4855, 0.6577, 0.7049]</t>
-  </si>
-  <si>
-    <t>Mean: 0.5548, Variance: 0.0174, 95% Confidence Interval: [0.4390, 0.6706]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mean: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6270</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Variance: 0.0024, 95% Confidence Interval: [0.5844, 0.6696]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6968</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 0.6343, 0.5660, 0.6004, 0.6375]</t>
-    </r>
-  </si>
-  <si>
-    <t>lucas_job_2510327</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mean: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6494</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Variance: 0.0012, 95% Confidence Interval: [0.6184, 0.6803]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.6904</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 0.6404, 0.6093, 0.6816, 0.6251]</t>
-    </r>
-  </si>
-  <si>
-    <t>Mean: 0.5378, Variance: 0.0097, 95% Confidence Interval: [0.4516, 0.6240]</t>
-  </si>
-  <si>
-    <t>[0.4101, 0.6370, 0.6062, 0.4584, 0.5771]</t>
+      <t xml:space="preserve"> (5 folds)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gene Expression &amp; Methylation 450k (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Only Prova2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) (5 folds)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Expression &amp; Methylation 450k (5 folds) </t>
+  </si>
+  <si>
+    <r>
+      <t>Gene Expression &amp; Methylation 450k (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Original Gene Signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) (5 folds)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5756, Variance: 0.0033, 95% Confidence Interval: [0.5249, 0.6263]</t>
+  </si>
+  <si>
+    <r>
+      <t>[0.4911, 0.6053, 0.6168, 0.5401,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.9399, Variance: 0.0049, 95% Confidence Interval: [0.8786, 1.0012]</t>
+  </si>
+  <si>
+    <t>[0.9003, 1.0085, 1.0212, 0.8671, 0.9024]</t>
+  </si>
+  <si>
+    <t>lucas_job_2513792</t>
+  </si>
+  <si>
+    <t>lucas_job_2513799</t>
+  </si>
+  <si>
+    <t>lucas_job_2513804</t>
+  </si>
+  <si>
+    <t>Mean: 0.5911, Variance: 0.0037, 95% Confidence Interval: [0.5377, 0.6444]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.4993, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5576, 0.6275, 0.6331]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.9977, Variance: 0.0080, 95% Confidence Interval: [0.9192, 1.0763]</t>
+  </si>
+  <si>
+    <t>[1.1115, 1.0065, 1.0534, 0.9154, 0.9017]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6014, Variance: 0.0024, 95% Confidence Interval: [0.5584, 0.6443]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ 0.5589, 0.6216, 0.5411, 0.6292, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 1.1837, Variance: 0.0058, 95% Confidence Interval: [1.1169, 1.2505]</t>
+  </si>
+  <si>
+    <t>[1.1136, 1.1844, 1.2332, 1.2822, 1.1052]</t>
+  </si>
+  <si>
+    <t>lucas_job_2514427</t>
+  </si>
+  <si>
+    <t>lucas_job_2514429</t>
+  </si>
+  <si>
+    <t>lucas_job_2514448</t>
+  </si>
+  <si>
+    <t>lucas_job_2514451</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1882,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1048,7 +1953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1082,11 +1987,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1133,9 +2051,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1416,21 +2338,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+    <col min="2" max="2" width="68.36328125" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
     <col min="9" max="9" width="9.36328125" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="11" max="11" width="8.81640625" customWidth="1"/>
@@ -1459,75 +2381,75 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -1536,69 +2458,69 @@
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G3" s="11">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="11">
-        <v>7</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="10">
         <v>4</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T3" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -1607,69 +2529,69 @@
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G4" s="11">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11">
         <v>100</v>
       </c>
-      <c r="H4" s="11">
-        <v>7</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="10">
         <v>4</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -1678,69 +2600,69 @@
         <v>20</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G5" s="11">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="11">
-        <v>7</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="10">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="W5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1749,69 +2671,69 @@
         <v>20</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G6" s="11">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="11">
-        <v>7</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="10">
         <v>4</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="W6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1820,69 +2742,69 @@
         <v>20</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G7" s="11">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="11">
-        <v>7</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="10">
         <v>4</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -1891,69 +2813,69 @@
         <v>20</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G8" s="11">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11">
         <v>100</v>
       </c>
-      <c r="H8" s="11">
-        <v>7</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="10">
         <v>4</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -1962,69 +2884,69 @@
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G9" s="11">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="11">
-        <v>7</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J9" s="10">
         <v>4</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T9" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -2033,69 +2955,69 @@
         <v>20</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
         <v>100</v>
       </c>
-      <c r="H10" s="11">
-        <v>7</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" s="10">
         <v>4</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T10" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -2104,69 +3026,69 @@
         <v>20</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11">
         <v>100</v>
       </c>
-      <c r="H11" s="11">
-        <v>7</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" s="10">
         <v>4</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="N11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -2174,70 +3096,70 @@
       <c r="E12" s="11">
         <v>20</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>159</v>
+      <c r="F12" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G12" s="11">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11">
         <v>100</v>
       </c>
-      <c r="H12" s="11">
-        <v>7</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="10">
         <v>4</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="N12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="11" t="s">
+      <c r="P12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T12" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -2246,69 +3168,69 @@
         <v>20</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G13" s="11">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11">
         <v>100</v>
       </c>
-      <c r="H13" s="11">
-        <v>7</v>
-      </c>
       <c r="I13" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J13" s="10">
         <v>4</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="N13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="11" t="s">
+      <c r="P13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T13" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
@@ -2317,69 +3239,69 @@
         <v>20</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G14" s="11">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="11">
-        <v>7</v>
-      </c>
       <c r="I14" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J14" s="10">
         <v>4</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="N14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="11" t="s">
+      <c r="P14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T14" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
@@ -2388,69 +3310,69 @@
         <v>20</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G15" s="11">
+        <v>7</v>
+      </c>
+      <c r="H15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="11">
-        <v>7</v>
-      </c>
       <c r="I15" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J15" s="10">
         <v>4</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="N15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T15" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -2459,69 +3381,69 @@
         <v>20</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G16" s="11">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11">
         <v>100</v>
       </c>
-      <c r="H16" s="11">
-        <v>7</v>
-      </c>
       <c r="I16" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J16" s="10">
         <v>4</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T16" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -2530,69 +3452,69 @@
         <v>20</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G17" s="11">
+        <v>7</v>
+      </c>
+      <c r="H17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="11">
-        <v>7</v>
-      </c>
       <c r="I17" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J17" s="10">
         <v>4</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T17" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -2601,69 +3523,69 @@
         <v>20</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G18" s="11">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11">
         <v>100</v>
       </c>
-      <c r="H18" s="11">
-        <v>7</v>
-      </c>
       <c r="I18" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J18" s="10">
         <v>4</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="11" t="s">
+      <c r="P18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T18" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
@@ -2672,69 +3594,69 @@
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G19" s="11">
+        <v>7</v>
+      </c>
+      <c r="H19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="11">
-        <v>7</v>
-      </c>
       <c r="I19" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J19" s="10">
         <v>4</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="V19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="W19" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
@@ -2743,69 +3665,69 @@
         <v>20</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G20" s="11">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11">
         <v>100</v>
       </c>
-      <c r="H20" s="11">
-        <v>7</v>
-      </c>
       <c r="I20" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J20" s="10">
         <v>4</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="L20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="11" t="s">
+      <c r="P20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T20" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
@@ -2814,69 +3736,69 @@
         <v>20</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G21" s="11">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11">
         <v>100</v>
       </c>
-      <c r="H21" s="11">
-        <v>7</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J21" s="10">
         <v>4</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="W21" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
@@ -2885,69 +3807,69 @@
         <v>20</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G22" s="11">
+        <v>7</v>
+      </c>
+      <c r="H22" s="11">
         <v>100</v>
       </c>
-      <c r="H22" s="11">
-        <v>7</v>
-      </c>
       <c r="I22" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J22" s="10">
         <v>4</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="N22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="11" t="s">
+      <c r="P22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q22" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="R22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T22" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11">
         <v>1</v>
@@ -2956,69 +3878,69 @@
         <v>20</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G23" s="11">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11">
         <v>100</v>
       </c>
-      <c r="H23" s="11">
-        <v>7</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J23" s="10">
         <v>4</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="N23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="11" t="s">
+      <c r="P23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T23" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
@@ -3027,69 +3949,69 @@
         <v>20</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G24" s="11">
+        <v>7</v>
+      </c>
+      <c r="H24" s="11">
         <v>100</v>
       </c>
-      <c r="H24" s="11">
-        <v>7</v>
-      </c>
       <c r="I24" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J24" s="10">
         <v>4</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="N24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="Q24" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T24" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
@@ -3098,69 +4020,69 @@
         <v>20</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G25" s="11">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11">
         <v>100</v>
       </c>
-      <c r="H25" s="11">
-        <v>7</v>
-      </c>
       <c r="I25" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J25" s="10">
         <v>4</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="R25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T25" s="7" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -3169,69 +4091,69 @@
         <v>20</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G26" s="11">
+        <v>7</v>
+      </c>
+      <c r="H26" s="11">
         <v>100</v>
       </c>
-      <c r="H26" s="11">
-        <v>7</v>
-      </c>
       <c r="I26" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J26" s="10">
         <v>4</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="R26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S26" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T26" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -3240,69 +4162,69 @@
         <v>20</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="11">
+        <v>7</v>
+      </c>
+      <c r="H27" s="11">
         <v>100</v>
       </c>
-      <c r="H27" s="11">
-        <v>7</v>
-      </c>
       <c r="I27" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J27" s="10">
         <v>8</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="11" t="s">
+      <c r="S27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T27" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -3311,69 +4233,69 @@
         <v>20</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="11">
+        <v>7</v>
+      </c>
+      <c r="H28" s="11">
         <v>100</v>
       </c>
-      <c r="H28" s="11">
-        <v>7</v>
-      </c>
       <c r="I28" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="10">
         <v>8</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T28" s="7" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -3382,69 +4304,69 @@
         <v>20</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="11">
+        <v>7</v>
+      </c>
+      <c r="H29" s="11">
         <v>100</v>
       </c>
-      <c r="H29" s="11">
-        <v>7</v>
-      </c>
       <c r="I29" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" s="10">
         <v>8</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="11" t="s">
+      <c r="S29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T29" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -3453,69 +4375,69 @@
         <v>20</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G30" s="11">
+        <v>7</v>
+      </c>
+      <c r="H30" s="11">
         <v>100</v>
       </c>
-      <c r="H30" s="11">
-        <v>7</v>
-      </c>
       <c r="I30" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="10">
         <v>8</v>
       </c>
       <c r="K30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R30" s="11" t="s">
+      <c r="S30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T30" s="7" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
@@ -3524,69 +4446,69 @@
         <v>20</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="G31" s="11">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11">
         <v>100</v>
       </c>
-      <c r="H31" s="11">
-        <v>7</v>
-      </c>
       <c r="I31" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="10">
         <v>8</v>
       </c>
       <c r="K31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" s="11" t="s">
+      <c r="S31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T31" s="7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
@@ -3595,13 +4517,13 @@
         <v>20</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="11">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11">
         <v>100</v>
-      </c>
-      <c r="H32" s="11">
-        <v>7</v>
       </c>
       <c r="I32" s="10">
         <v>1</v>
@@ -3610,54 +4532,54 @@
         <v>8</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="11" t="s">
+      <c r="S32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T32" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -3666,69 +4588,69 @@
         <v>20</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="11">
+        <v>7</v>
+      </c>
+      <c r="H33" s="11">
         <v>100</v>
       </c>
-      <c r="H33" s="11">
-        <v>7</v>
-      </c>
       <c r="I33" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J33" s="10">
         <v>16</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="11" t="s">
+      <c r="S33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T33" s="7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -3737,69 +4659,69 @@
         <v>20</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="11">
+        <v>7</v>
+      </c>
+      <c r="H34" s="11">
         <v>100</v>
       </c>
-      <c r="H34" s="11">
-        <v>7</v>
-      </c>
       <c r="I34" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J34" s="10">
         <v>16</v>
       </c>
       <c r="K34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R34" s="11" t="s">
+      <c r="S34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S34" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T34" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
@@ -3808,69 +4730,69 @@
         <v>20</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="11">
+        <v>7</v>
+      </c>
+      <c r="H35" s="11">
         <v>100</v>
       </c>
-      <c r="H35" s="11">
-        <v>7</v>
-      </c>
       <c r="I35" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J35" s="10">
         <v>16</v>
       </c>
       <c r="K35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="11" t="s">
+      <c r="S35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T35" s="7" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
@@ -3879,69 +4801,69 @@
         <v>20</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="G36" s="11">
+        <v>7</v>
+      </c>
+      <c r="H36" s="11">
         <v>100</v>
       </c>
-      <c r="H36" s="11">
-        <v>7</v>
-      </c>
       <c r="I36" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J36" s="10">
         <v>4</v>
       </c>
       <c r="K36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R36" s="11" t="s">
+      <c r="S36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S36" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="T36" s="7" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="W36" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -3950,278 +4872,714 @@
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="11">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3">
+        <v>15</v>
+      </c>
+      <c r="H37" s="11">
         <v>100</v>
       </c>
-      <c r="H37" s="3">
-        <v>15</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J37" s="2">
         <v>4</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="P37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="V37" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7</v>
+      </c>
+      <c r="H38" s="11">
+        <v>100</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="S38" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="V38" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="W38" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7</v>
+      </c>
+      <c r="H39" s="11">
+        <v>100</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="M39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T37" s="7" t="s">
+      <c r="Q39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S39" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="U37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="W37" s="7" t="s">
+      <c r="T39" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="U39" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="W39" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="3">
+        <v>7</v>
+      </c>
+      <c r="H40" s="11">
+        <v>100</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="2">
+        <v>4</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="W40" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7</v>
+      </c>
+      <c r="H41" s="11">
+        <v>100</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7</v>
+      </c>
+      <c r="H42" s="11">
+        <v>100</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7</v>
+      </c>
+      <c r="H43" s="11">
+        <v>100</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7</v>
+      </c>
+      <c r="H44" s="11">
+        <v>100</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7</v>
+      </c>
+      <c r="H45" s="11">
+        <v>100</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7</v>
+      </c>
+      <c r="H46" s="11">
+        <v>100</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B47" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7</v>
+      </c>
+      <c r="H47" s="11">
+        <v>100</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="2">
+        <v>4</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4234,15 +5592,17 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4255,6 +5615,81 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D8A13-6ED3-4948-B7C5-E8F5EF78B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF04872-F22C-4135-9B71-9BA393BA9E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="267">
   <si>
     <t>Alpha</t>
   </si>
@@ -1596,12 +1596,6 @@
     </r>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Gene Expression &amp; Methylation 27k (5 folds)</t>
   </si>
   <si>
@@ -1828,13 +1822,328 @@
   </si>
   <si>
     <t>lucas_job_2514451</t>
+  </si>
+  <si>
+    <t>lucas_job_2514827</t>
+  </si>
+  <si>
+    <t>lucas_job_2514945</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gene Expression &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Full Methylation 27k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (3 folds)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5347, Variance: 0.0028, 95% Confidence Interval: [0.4747, 0.5948]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5919</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4871, 0.5253]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 1.0583, Variance: 0.0026, 95% Confidence Interval: [1.0001, 1.1165]</t>
+  </si>
+  <si>
+    <t>[1.0059, 1.1086, 1.0604]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5317, Variance: 0.0024, 95% Confidence Interval: [0.4767, 0.5866]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5819</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4850, 0.5282]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.9999, 1.1043, 0.9599]</t>
+  </si>
+  <si>
+    <t>Mean: 1.0214, Variance: 0.0056, 95% Confidence Interval: [0.9370, 1.1057]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5413, Variance: 0.0027, 95% Confidence Interval: [0.4825, 0.6002]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5773</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4817, 0.5651]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 1.0295, Variance: 0.0217, 95% Confidence Interval: [0.8626, 1.1963]</t>
+  </si>
+  <si>
+    <t>[0.9144, 1.1957, 0.9783]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gene Expression &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Full Methylation 27k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (7 folds)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5974, Variance: 0.0048, 95% Confidence Interval: [0.5459, 0.6488]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5855, 0.5112, 0.6305, 0.5408, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7182</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6329, 0.5626]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ 0.8522, 0.9090, 1.0812, 1.0567, 0.8444, 0.7819, 0.9692 ]</t>
+  </si>
+  <si>
+    <t>Mean: 0.9278, Variance: 0.0127, 95% Confidence Interval: [0.8443, 1.0113]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6071, Variance: 0.0027, 95% Confidence Interval: [0.5614, 0.6528]</t>
+  </si>
+  <si>
+    <t>Mean: 0.9345, Variance: 0.0065, 95% Confidence Interval: [0.8639, 1.0051]</t>
+  </si>
+  <si>
+    <t>[0.8718, 1.0033, 1.0389, 0.8902, 0.8683]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gene Expression &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Full Methylation 450k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (5 folds)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5854, Variance: 0.0067, 95% Confidence Interval: [0.5136, 0.6573]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.4920, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6642</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6448, 0.5022, 0.6240]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5260, 0.6375, 0.6295, 0.5860, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6565</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[1.0287, 0.8643, 1.0088, 1.0406, 1.0441]</t>
+  </si>
+  <si>
+    <t>Mean: 0.9973, Variance: 0.0057, 95% Confidence Interval: [0.9310, 1.0636]</t>
+  </si>
+  <si>
+    <t>lucas_job_2515593</t>
+  </si>
+  <si>
+    <t>Mean: 0.5881, Variance: 0.0053, 95% Confidence Interval: [0.5244, 0.6519]</t>
+  </si>
+  <si>
+    <t>0.000015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5114, 0.6042, 0.5442, 0.5788, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 1.3000, Variance: 0.0585, 95% Confidence Interval: [1.0879, 1.5120]</t>
+  </si>
+  <si>
+    <t>[1.1236, 1.4027, 1.0896, 1.6742, 1.2098]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1914,8 +2223,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1949,6 +2271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,7 +2332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2057,7 +2385,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2338,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2364,9 +2709,9 @@
     <col min="18" max="18" width="9.6328125" customWidth="1"/>
     <col min="19" max="19" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="64.81640625" customWidth="1"/>
-    <col min="21" max="21" width="36.81640625" customWidth="1"/>
+    <col min="21" max="21" width="49.6328125" customWidth="1"/>
     <col min="22" max="22" width="65.1796875" customWidth="1"/>
-    <col min="23" max="23" width="36" customWidth="1"/>
+    <col min="23" max="24" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
@@ -2446,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
@@ -2517,7 +2862,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
@@ -2588,7 +2933,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>2</v>
@@ -2659,7 +3004,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -2730,7 +3075,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
@@ -2801,7 +3146,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>2</v>
@@ -2872,7 +3217,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>2</v>
@@ -2943,7 +3288,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
@@ -3014,7 +3359,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>2</v>
@@ -3085,7 +3430,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>2</v>
@@ -3156,7 +3501,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2</v>
@@ -3227,7 +3572,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>2</v>
@@ -3298,7 +3643,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>2</v>
@@ -3369,7 +3714,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>2</v>
@@ -3440,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2</v>
@@ -3511,7 +3856,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>2</v>
@@ -3582,7 +3927,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>2</v>
@@ -3653,7 +3998,7 @@
         <v>109</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>2</v>
@@ -3724,7 +4069,7 @@
         <v>110</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>2</v>
@@ -3795,7 +4140,7 @@
         <v>114</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>2</v>
@@ -3866,7 +4211,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>2</v>
@@ -3937,7 +4282,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>2</v>
@@ -4008,7 +4353,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>2</v>
@@ -4079,7 +4424,7 @@
         <v>127</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>2</v>
@@ -4150,7 +4495,7 @@
         <v>143</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>2</v>
@@ -4221,7 +4566,7 @@
         <v>146</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>2</v>
@@ -4292,7 +4637,7 @@
         <v>148</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>2</v>
@@ -4363,7 +4708,7 @@
         <v>151</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>2</v>
@@ -4434,7 +4779,7 @@
         <v>153</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>2</v>
@@ -4505,7 +4850,7 @@
         <v>156</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>2</v>
@@ -4571,12 +4916,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>2</v>
@@ -4642,12 +4987,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>2</v>
@@ -4713,12 +5058,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>2</v>
@@ -4784,12 +5129,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>2</v>
@@ -4855,12 +5200,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>2</v>
@@ -4926,12 +5271,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>2</v>
@@ -4979,32 +5324,30 @@
         <v>15</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="T38" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="V38" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="U38" s="17" t="s">
+      <c r="W38" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="V38" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="W38" s="17" t="s">
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>211</v>
+      <c r="B39" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>2</v>
@@ -5052,30 +5395,30 @@
         <v>15</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="T39" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="U39" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="V39" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="U39" s="17" t="s">
+      <c r="W39" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="V39" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="W39" s="17" t="s">
-        <v>225</v>
-      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>211</v>
+        <v>219</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>2</v>
@@ -5123,93 +5466,101 @@
         <v>15</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="T40" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="V40" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="U40" s="17" t="s">
+      <c r="W40" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="V40" s="17" t="s">
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="W40" s="17" t="s">
+      <c r="B41" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1</v>
+      </c>
+      <c r="E41" s="20">
+        <v>20</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="22">
+        <v>7</v>
+      </c>
+      <c r="H41" s="20">
+        <v>100</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="21">
+        <v>4</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="W41" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11">
-        <v>20</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="3">
-        <v>7</v>
-      </c>
-      <c r="H41" s="11">
-        <v>100</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="2">
-        <v>4</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>211</v>
+      <c r="B42" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>2</v>
@@ -5230,13 +5581,13 @@
         <v>100</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J42" s="2">
         <v>4</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>12</v>
@@ -5257,22 +5608,30 @@
         <v>15</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="T42" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="V42" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W42" s="18" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>211</v>
+        <v>230</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>2</v>
@@ -5299,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>12</v>
@@ -5320,22 +5679,30 @@
         <v>15</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="T43" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="U43" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="V43" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="W43" s="18" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>211</v>
+        <v>231</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>2</v>
@@ -5383,19 +5750,30 @@
         <v>15</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="T44" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="V44" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="W44" s="18" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B45" s="9" t="s">
-        <v>211</v>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>2</v>
@@ -5443,19 +5821,30 @@
         <v>15</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="T45" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="U45" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="V45" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="W45" s="18" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B46" s="9" t="s">
-        <v>211</v>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>2</v>
@@ -5503,19 +5892,30 @@
         <v>15</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="U46" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="V46" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="W46" s="18" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B47" s="9" t="s">
-        <v>211</v>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>2</v>
@@ -5536,13 +5936,13 @@
         <v>100</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="J47" s="2">
         <v>4</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>12</v>
@@ -5563,38 +5963,83 @@
         <v>15</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="T47" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="U47" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="V47" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="W47" s="18" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B48" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>20</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7</v>
+      </c>
+      <c r="H48" s="11">
+        <v>100</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
@@ -5614,70 +6059,70 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.35">
       <c r="T60" s="1"/>

--- a/src/mcat/Grid Search.xlsx
+++ b/src/mcat/Grid Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\src\mcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF04872-F22C-4135-9B71-9BA393BA9E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071DD95-EECB-47CD-B956-F041416F03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="386">
   <si>
     <t>Alpha</t>
   </si>
@@ -2137,6 +2137,1472 @@
   </si>
   <si>
     <t>[1.1236, 1.4027, 1.0896, 1.6742, 1.2098]</t>
+  </si>
+  <si>
+    <t>Gene Expression (7 folds)</t>
+  </si>
+  <si>
+    <t>Mean: 0.5933, Variance: 0.0135, 95% Confidence Interval: [0.5073, 0.6793]</t>
+  </si>
+  <si>
+    <t>[0.6895, 0.8739, 0.8474, 0.8862, 0.5219, 0.5692, 0.6176]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5978, 0.4408, 0.6635, 0.5346, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8067</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5367, 0.5731]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.7151, Variance: 0.0235, 95% Confidence Interval: [0.6016, 0.8285]</t>
+  </si>
+  <si>
+    <t>lucas_job_2518869</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <r>
+      <t>[0.6388, 0.5184, 0.6625, 0.5152,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.7783</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4645, 0.5782]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5937, Variance: 0.0116, 95% Confidence Interval: [0.5139, 0.6735]</t>
+  </si>
+  <si>
+    <t>[0.6890, 0.7069, 0.7564, 0.7596, 0.5166, 0.5865, 0.6140]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6613, Variance: 0.0084, 95% Confidence Interval: [0.5935, 0.7291]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6140, 0.4175, 0.5716, 0.5190, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4236, 0.5681]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5596, Variance: 0.0172, 95% Confidence Interval: [0.4626, 0.6566]</t>
+  </si>
+  <si>
+    <t>[0.6765, 0.9240, 0.6424, 0.7605, 0.5002, 0.5829, 0.6305]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6739, Variance: 0.0186, 95% Confidence Interval: [0.5729, 0.7748]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6490, 0.5699, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7147</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 0.5680, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6270, 0.5140]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6349</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0096, 95% Confidence Interval: [0.5622, 0.7076]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.6350, Variance: 0.0196, 95% Confidence Interval: [0.5312, 0.7388]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5670, 0.5922, 0.6447, 0.5100, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8433</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6510, 0.6102]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0111, 95% Confidence Interval: [0.5533, 0.7091]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6503, 0.7209, 0.5786, 0.7194, 0.4166, 0.5184, 0.6981]</t>
+  </si>
+  <si>
+    <t>[0.6432, 0.7919, 0.5503, 0.8494, 0.4596, 0.5428, 0.6079]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6146, Variance: 0.0134, 95% Confidence Interval: [0.5289, 0.7003]</t>
+  </si>
+  <si>
+    <r>
+      <t>[0.6217, 0.5670, 0.6238, 0.6216,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8917</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6775, 0.5862]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0120, 95% Confidence Interval: [0.5744, 0.7369]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5594, Variance: 0.0131, 95% Confidence Interval: [0.4747, 0.6441]</t>
+  </si>
+  <si>
+    <t>[0.6367, 0.6936, 0.5394, 0.6669, 0.3874, 0.4466, 0.5454]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6376</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0064, 95% Confidence Interval: [0.5784, 0.6967]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.7060, 0.7891, 0.6559, 0.7634, 0.5176, 0.5869, 0.6329]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6646, Variance: 0.0093, 95% Confidence Interval: [0.5932, 0.7359]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5798, 0.5777, 0.6447, 0.6052, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6294, 0.6162]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6483</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0091, 95% Confidence Interval: [0.5778, 0.7189]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.7172, 0.7648, 0.6111, 0.8253, 0.5057, 0.6108, 0.7161]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6787, Variance: 0.0118, 95% Confidence Interval: [0.5982, 0.7592]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6234, 0.5961, 0.5977, 0.5673, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8517</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6679, 0.6343]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0082, 95% Confidence Interval: [0.5721, 0.7061]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6413, 0.5583, 0.6520, 0.5673, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8283</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6065, 0.6202]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6875, 0.7115, 0.6313, 0.8708, 0.5034, 0.5961, 0.6817]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6689, Variance: 0.0129, 95% Confidence Interval: [0.5849, 0.7529]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6429</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0178, 95% Confidence Interval: [0.5440, 0.7418]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6712, 0.5204, 0.6886, 0.5665, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.7304, 0.4679]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5949, Variance: 0.0154, 95% Confidence Interval: [0.5029, 0.6868]</t>
+  </si>
+  <si>
+    <t>[0.6400, 0.6698, 0.5935, 0.7885, 0.4059, 0.4888, 0.5777]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6456, 0.4854, 0.6322, 0.6230, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6089, 0.5972]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6196, 0.6307, 0.5665, 0.7151, 0.4654, 0.5559, 0.5912]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5921, Variance: 0.0059, 95% Confidence Interval: [0.5351, 0.6490]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6661, 0.5388, 0.6761, 0.5405, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8317</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.7208, 0.5681]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6489</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0117, 95% Confidence Interval: [0.5689, 0.7289]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6332</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0111, 95% Confidence Interval: [0.5551, 0.7113]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5437, Variance: 0.0081, 95% Confidence Interval: [0.4771, 0.6103]</t>
+  </si>
+  <si>
+    <t>[0.5876, 0.6192, 0.4931, 0.6787, 0.4174, 0.4811, 0.5284]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5361, Variance: 0.0161, 95% Confidence Interval: [0.4420, 0.6302]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6302, 0.4165, 0.6405, 0.5502, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.3779, 0.4359]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6867, 0.7195, 0.6243, 0.7418, 0.5039, 0.5569, 0.6417]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6393, Variance: 0.0074, 95% Confidence Interval: [0.5754, 0.7031]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5349, Variance: 0.0057, 95% Confidence Interval: [0.4789, 0.5908]</t>
+  </si>
+  <si>
+    <t>[0.6927, 1.0377, 0.6007, 0.9685, 0.5040, 0.5506, 0.6429]</t>
+  </si>
+  <si>
+    <t>Mean: 0.7139, Variance: 0.0431, 95% Confidence Interval: [0.5601, 0.8677]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6166, 0.4583, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6238</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5428, 0.5650, 0.4236, 0.5140]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6149, 0.4417, 0.6311, 0.5435, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6633</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.3069, 0.4439]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5208, Variance: 0.0166, 95% Confidence Interval: [0.4252, 0.6163]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6347, Variance: 0.0071, 95% Confidence Interval: [0.5725, 0.6969]</t>
+  </si>
+  <si>
+    <t>[0.6928, 0.6780, 0.6816, 0.7275, 0.5001, 0.5463, 0.6168]</t>
+  </si>
+  <si>
+    <r>
+      <t>[0.6601, 0.5806, 0.6656, 0.5836,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5704, 0.5251]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0109, 95% Confidence Interval: [0.5549, 0.7095]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.6404, 0.8057, 0.5887, 0.8797, 0.4381, 0.5394, 0.6877]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6542, Variance: 0.0232, 95% Confidence Interval: [0.5414, 0.7671]</t>
+  </si>
+  <si>
+    <t>[0.6372, 0.7914, 0.5604, 0.7639, 0.4360, 0.5456, 0.6757]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6300, Variance: 0.0160, 95% Confidence Interval: [0.5365, 0.7236]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6422, 0.5621, 0.6667, 0.5450, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5800, 0.5621]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6283</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0108, 95% Confidence Interval: [0.5515, 0.7051]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.5973, Variance: 0.0060, 95% Confidence Interval: [0.5401, 0.6546]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6379, 0.4874, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6928</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5762, 0.6867, 0.5584, 0.5421]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6082, 0.7651, 0.6187, 0.7784, 0.4905, 0.5228, 0.5595]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6205, Variance: 0.0127, 95% Confidence Interval: [0.5370, 0.7039]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6507, 0.4388, 0.6186, 0.5041, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8683</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5848, 0.5461]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mean:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0189, 95% Confidence Interval: [0.4999, 0.7034]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.7059, 0.7393, 0.6080, 0.7611, 0.5342, 0.6647, 0.7471]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6800, Variance: 0.0070, 95% Confidence Interval: [0.6181, 0.7420]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6349</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0088, 95% Confidence Interval: [0.5653, 0.7045]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6864, 0.8437, 0.6070, 0.7485, 0.4883, 0.6828, 0.7189]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6822, Variance: 0.0125, 95% Confidence Interval: [0.5994, 0.7651]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6490, 0.5922, 0.6259, 0.5688, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8367</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6077, 0.5641]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0.6422, 0.5951, 0.6970, 0.5688,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8617</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6751, 0.5691]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6584</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0106, 95% Confidence Interval: [0.5823, 0.7345]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6818, 0.7967, 0.6423, 0.8589, 0.4924, 0.6731, 0.8353]</t>
+  </si>
+  <si>
+    <t>Mean: 0.7115, Variance: 0.0166, 95% Confidence Interval: [0.6161, 0.8069]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6376</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0124, 95% Confidence Interval: [0.5551, 0.7201]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6652, 0.5456, 0.6782, 0.5717, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6173, 0.5301]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.6110, Variance: 0.0097, 95% Confidence Interval: [0.5380, 0.6840]</t>
+  </si>
+  <si>
+    <t>[0.6467, 0.7212, 0.5521, 0.7483, 0.4852, 0.5315, 0.5918]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6943, 0.5583, 0.6719, 0.6439, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8883</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6667, 0.5381]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6659</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0131, 95% Confidence Interval: [0.5811, 0.7508]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6412, 0.7240, 0.5367, 0.7888, 0.4068, 0.5007, 0.6812]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6113, Variance: 0.0183, 95% Confidence Interval: [0.5112, 0.7114]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.5952, 0.4932, 0.7335, 0.5576, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7883</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5355, 0.5200]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0128, 95% Confidence Interval: [0.5194, 0.6873]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6154, 0.6404, 0.5292, 0.6900, 0.4117, 0.5521, 0.5347]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5676, Variance: 0.0083, 95% Confidence Interval: [0.5002, 0.6350]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5275, Variance: 0.0079, 95% Confidence Interval: [0.4617, 0.5933]</t>
+  </si>
+  <si>
+    <t>[0.6711, 0.6935, 0.6066, 0.7241, 0.4927, 0.5570, 0.7080]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6362, Variance: 0.0075, 95% Confidence Interval: [0.5719, 0.7004]</t>
+  </si>
+  <si>
+    <t>Mean: 0.5206, Variance: 0.0091, 95% Confidence Interval: [0.4498, 0.5913]</t>
+  </si>
+  <si>
+    <t>[0.6865, 0.7720, 0.6048, 0.7485, 0.5029, 0.5528, 0.6720]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6485, Variance: 0.0099, 95% Confidence Interval: [0.5747, 0.7223]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6260</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4262, 0.5883, 0.5465, 0.6000, 0.3730, 0.4840]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.4359, 0.5873, 0.5532, 0.5767, 0.3706, 0.5601]</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean: 0.4929, Variance: 0.0107, 95% Confidence Interval: [0.4165, 0.5694]</t>
+  </si>
+  <si>
+    <r>
+      <t>[0.5952, 0.4078,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5569, 0.4700, 0.3478, 0.4449]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6768, 0.6929, 0.6028, 0.7313, 0.4977, 0.5478, 0.6257]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6250, Variance: 0.0069, 95% Confidence Interval: [0.5636, 0.6864]</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6371</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0126, 95% Confidence Interval: [0.5540, 0.7202]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6695, 0.5388, 0.7346, 0.5881, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5596, 0.5391]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6494, 0.8512, 0.6153, 0.7652, 0.4362, 0.5428, 0.6892]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6499, Variance: 0.0189, 95% Confidence Interval: [0.5479, 0.7519]</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Variance: 0.0143, 95% Confidence Interval: [0.5626, 0.7401]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.6704, 0.5903, 0.7022, 0.5740, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6907, 0.4770]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.6802, 0.8501, 0.6040, 0.7760, 0.4470, 0.5626, 0.6127]</t>
+  </si>
+  <si>
+    <t>Mean: 0.6475, Variance: 0.0182, 95% Confidence Interval: [0.5476, 0.7474]</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +3747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2328,11 +3794,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2402,6 +3881,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2683,41 +4168,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="J58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="68.36328125" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+    <col min="5" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="14" width="10.453125" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" customWidth="1"/>
-    <col min="16" max="16" width="6.6328125" customWidth="1"/>
-    <col min="17" max="17" width="8.54296875" customWidth="1"/>
-    <col min="18" max="18" width="9.6328125" customWidth="1"/>
-    <col min="19" max="19" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="64.81640625" customWidth="1"/>
-    <col min="21" max="21" width="49.6328125" customWidth="1"/>
-    <col min="22" max="22" width="65.1796875" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="64.77734375" customWidth="1"/>
+    <col min="21" max="21" width="49.6640625" customWidth="1"/>
+    <col min="22" max="22" width="65.21875" customWidth="1"/>
     <col min="23" max="24" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -2786,7 +4271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -2857,7 +4342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
@@ -2928,7 +4413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +4484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -3070,7 +4555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -3141,7 +4626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -3212,7 +4697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -3283,7 +4768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -3354,7 +4839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
@@ -3425,7 +4910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -3496,7 +4981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
@@ -3567,7 +5052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
@@ -3638,7 +5123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
@@ -3709,7 +5194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
@@ -3780,7 +5265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -3851,7 +5336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>80</v>
       </c>
@@ -3922,7 +5407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
@@ -3993,7 +5478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>109</v>
       </c>
@@ -4064,7 +5549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>110</v>
       </c>
@@ -4135,7 +5620,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>114</v>
       </c>
@@ -4206,7 +5691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>118</v>
       </c>
@@ -4277,7 +5762,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>119</v>
       </c>
@@ -4348,7 +5833,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>123</v>
       </c>
@@ -4419,7 +5904,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>127</v>
       </c>
@@ -4490,7 +5975,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>143</v>
       </c>
@@ -4561,7 +6046,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>146</v>
       </c>
@@ -4632,7 +6117,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>148</v>
       </c>
@@ -4703,7 +6188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>151</v>
       </c>
@@ -4774,7 +6259,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>153</v>
       </c>
@@ -4845,7 +6330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>156</v>
       </c>
@@ -4916,7 +6401,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>158</v>
       </c>
@@ -4987,7 +6472,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>160</v>
       </c>
@@ -5058,7 +6543,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>158</v>
       </c>
@@ -5129,7 +6614,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>163</v>
       </c>
@@ -5200,7 +6685,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>167</v>
       </c>
@@ -5271,7 +6756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>217</v>
       </c>
@@ -5342,7 +6827,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>218</v>
       </c>
@@ -5413,7 +6898,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>219</v>
       </c>
@@ -5484,7 +6969,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>228</v>
       </c>
@@ -5555,7 +7040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>229</v>
       </c>
@@ -5626,7 +7111,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>230</v>
       </c>
@@ -5697,7 +7182,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>231</v>
       </c>
@@ -5768,7 +7253,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>232</v>
       </c>
@@ -5839,7 +7324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>233</v>
       </c>
@@ -5910,7 +7395,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>261</v>
       </c>
@@ -5965,7 +7450,7 @@
       <c r="R47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="11" t="s">
+      <c r="S47" s="24" t="s">
         <v>17</v>
       </c>
       <c r="T47" s="18" t="s">
@@ -5981,7 +7466,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
         <v>255</v>
       </c>
@@ -6033,7 +7518,7 @@
       <c r="R48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="11" t="s">
+      <c r="S48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="T48" s="18"/>
@@ -6041,7 +7526,7 @@
       <c r="V48" s="18"/>
       <c r="W48" s="18"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6059,82 +7544,2654 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T59" s="25"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1</v>
+      </c>
+      <c r="E60" s="11">
+        <v>20</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="3">
+        <v>7</v>
+      </c>
+      <c r="H60" s="11">
+        <v>100</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J60" s="2">
+        <v>4</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T60" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="U60" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="V60" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="W60" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="11">
+        <v>1</v>
+      </c>
+      <c r="E61" s="11">
+        <v>20</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="3">
+        <v>7</v>
+      </c>
+      <c r="H61" s="11">
+        <v>100</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J61" s="2">
+        <v>4</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T61" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="U61" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="V61" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="W61" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" s="11">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11">
+        <v>20</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3">
+        <v>7</v>
+      </c>
+      <c r="H62" s="11">
+        <v>100</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J62" s="2">
+        <v>4</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="U62" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="V62" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="W62" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
+      <c r="E63" s="11">
+        <v>20</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3">
+        <v>7</v>
+      </c>
+      <c r="H63" s="11">
+        <v>100</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63" s="2">
+        <v>4</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R63" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T63" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="U63" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="V63" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="W63" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11">
+        <v>20</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="3">
+        <v>7</v>
+      </c>
+      <c r="H64" s="11">
+        <v>100</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S64" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T64" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="U64" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="V64" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="W64" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3">
+        <v>7</v>
+      </c>
+      <c r="H65" s="11">
+        <v>100</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T65" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="U65" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="V65" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="W65" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="11">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7</v>
+      </c>
+      <c r="H66" s="11">
+        <v>100</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R66" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T66" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="11">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11">
+        <v>20</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="3">
+        <v>7</v>
+      </c>
+      <c r="H67" s="11">
+        <v>100</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T67" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="11">
+        <v>1</v>
+      </c>
+      <c r="E68" s="11">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="3">
+        <v>7</v>
+      </c>
+      <c r="H68" s="11">
+        <v>100</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" s="2">
+        <v>4</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S68" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T68" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="U68" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="V68" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="W68" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="11">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="3">
+        <v>7</v>
+      </c>
+      <c r="H69" s="11">
+        <v>100</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T69" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="U69" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="V69" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="W69" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11">
+        <v>20</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="3">
+        <v>7</v>
+      </c>
+      <c r="H70" s="11">
+        <v>100</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="2">
+        <v>4</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S70" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T70" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="U70" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="V70" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="W70" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+      <c r="E71" s="11">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="3">
+        <v>7</v>
+      </c>
+      <c r="H71" s="11">
+        <v>100</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="2">
+        <v>4</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="U71" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="V71" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="W71" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11">
+        <v>20</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7</v>
+      </c>
+      <c r="H72" s="11">
+        <v>100</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J72" s="2">
+        <v>4</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T72" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="U72" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="V72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="W72" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" s="3">
+        <v>7</v>
+      </c>
+      <c r="H73" s="11">
+        <v>100</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J73" s="2">
+        <v>4</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T73" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="U73" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="V73" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="W73" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="11">
+        <v>1</v>
+      </c>
+      <c r="E74" s="11">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" s="3">
+        <v>7</v>
+      </c>
+      <c r="H74" s="11">
+        <v>100</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J74" s="2">
+        <v>4</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="V74" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="W74" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="11">
+        <v>1</v>
+      </c>
+      <c r="E75" s="11">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G75" s="3">
+        <v>7</v>
+      </c>
+      <c r="H75" s="11">
+        <v>100</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J75" s="2">
+        <v>4</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T75" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="U75" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="V75" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="W75" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" s="11">
+        <v>1</v>
+      </c>
+      <c r="E76" s="11">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" s="3">
+        <v>7</v>
+      </c>
+      <c r="H76" s="11">
+        <v>100</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J76" s="2">
+        <v>4</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T76" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="U76" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="V76" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="W76" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G77" s="3">
+        <v>7</v>
+      </c>
+      <c r="H77" s="11">
+        <v>100</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J77" s="2">
+        <v>4</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T77" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="U77" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="V77" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="W77" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1</v>
+      </c>
+      <c r="E78" s="11">
+        <v>20</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" s="3">
+        <v>7</v>
+      </c>
+      <c r="H78" s="11">
+        <v>100</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78" s="2">
+        <v>4</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S78" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T78" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="U78" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="V78" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="W78" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+      <c r="E79" s="11">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="3">
+        <v>7</v>
+      </c>
+      <c r="H79" s="11">
+        <v>100</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J79" s="2">
+        <v>4</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T79" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="U79" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="V79" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="W79" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1</v>
+      </c>
+      <c r="E80" s="11">
+        <v>20</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G80" s="3">
+        <v>7</v>
+      </c>
+      <c r="H80" s="11">
+        <v>100</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J80" s="2">
+        <v>4</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S80" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T80" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="U80" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="V80" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W80" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+      <c r="E81" s="11">
+        <v>20</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7</v>
+      </c>
+      <c r="H81" s="11">
+        <v>100</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T81" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="V81" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="W81" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1</v>
+      </c>
+      <c r="E82" s="11">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G82" s="3">
+        <v>7</v>
+      </c>
+      <c r="H82" s="11">
+        <v>100</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J82" s="2">
+        <v>4</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S82" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T82" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="U82" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="V82" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="W82" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1</v>
+      </c>
+      <c r="E83" s="11">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7</v>
+      </c>
+      <c r="H83" s="11">
+        <v>100</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J83" s="2">
+        <v>4</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R83" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T83" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="U83" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="V83" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="W83" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="11">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="3">
+        <v>7</v>
+      </c>
+      <c r="H84" s="11">
+        <v>100</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J84" s="2">
+        <v>4</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S84" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T84" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="U84" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="V84" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="W84" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1</v>
+      </c>
+      <c r="E85" s="11">
+        <v>20</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="3">
+        <v>7</v>
+      </c>
+      <c r="H85" s="11">
+        <v>100</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R85" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="U85" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="V85" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="W85" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1</v>
+      </c>
+      <c r="E86" s="11">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G86" s="3">
+        <v>7</v>
+      </c>
+      <c r="H86" s="11">
+        <v>100</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J86" s="2">
+        <v>4</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R86" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S86" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="U86" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="V86" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="W86" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+      <c r="E87" s="11">
+        <v>20</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="3">
+        <v>7</v>
+      </c>
+      <c r="H87" s="11">
+        <v>100</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J87" s="2">
+        <v>4</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R87" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="U87" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="V87" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="W87" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1</v>
+      </c>
+      <c r="E88" s="11">
+        <v>20</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="3">
+        <v>7</v>
+      </c>
+      <c r="H88" s="11">
+        <v>100</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J88" s="2">
+        <v>4</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R88" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S88" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="U88" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="V88" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="W88" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="11">
+        <v>1</v>
+      </c>
+      <c r="E89" s="11">
+        <v>20</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="3">
+        <v>7</v>
+      </c>
+      <c r="H89" s="11">
+        <v>100</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J89" s="2">
+        <v>4</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P89" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="11">
+        <v>1</v>
+      </c>
+      <c r="E90" s="11">
+        <v>20</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="3">
+        <v>7</v>
+      </c>
+      <c r="H90" s="11">
+        <v>100</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J90" s="2">
+        <v>4</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P90" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R90" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S90" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="11">
+        <v>1</v>
+      </c>
+      <c r="E91" s="11">
+        <v>20</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="3">
+        <v>7</v>
+      </c>
+      <c r="H91" s="11">
+        <v>100</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="2">
+        <v>4</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="11">
+        <v>1</v>
+      </c>
+      <c r="E92" s="11">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="3">
+        <v>7</v>
+      </c>
+      <c r="H92" s="11">
+        <v>100</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" s="2">
+        <v>4</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S92" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="11">
+        <v>1</v>
+      </c>
+      <c r="E93" s="11">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="3">
+        <v>7</v>
+      </c>
+      <c r="H93" s="11">
+        <v>100</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" s="2">
+        <v>4</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R93" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="11">
+        <v>1</v>
+      </c>
+      <c r="E94" s="11">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="3">
+        <v>7</v>
+      </c>
+      <c r="H94" s="11">
+        <v>100</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="2">
+        <v>4</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1</v>
+      </c>
+      <c r="E95" s="11">
+        <v>20</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="3">
+        <v>7</v>
+      </c>
+      <c r="H95" s="11">
+        <v>100</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J95" s="2">
+        <v>4</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+    </row>
+    <row r="97" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+    </row>
+    <row r="98" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+    </row>
+    <row r="99" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+    </row>
+    <row r="100" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+    </row>
+    <row r="101" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+    </row>
+    <row r="102" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+    </row>
+    <row r="103" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+    </row>
+    <row r="104" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+    </row>
+    <row r="105" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+    </row>
+    <row r="106" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+    </row>
+    <row r="107" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+    </row>
+    <row r="108" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+    </row>
+    <row r="109" spans="20:23" x14ac:dyDescent="0.3">
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
